--- a/Mifos Automation Excels/Loan Product/4210-RBI-EI-DB-DL-REC-RNI-INT-FFConMONTHLYonDAY25-FIFC-1-FFROP-DAILY-FIFR-1-MD-TR-1-ONTIME-PER-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/4210-RBI-EI-DB-DL-REC-RNI-INT-FFConMONTHLYonDAY25-FIFC-1-FFROP-DAILY-FIFR-1-MD-TR-1-ONTIME-PER-Loanproduct.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="76">
   <si>
     <t>productname</t>
   </si>
@@ -233,13 +233,16 @@
     <t>Interest</t>
   </si>
   <si>
-    <t>4210-RBI-EI-DB-DL-REC-RNI-INT-FFConMONTHLYonDAY25-FIFC-1-FFROP-DAILY-FIFR-1-MD-TR-1-ONTIME-PER</t>
-  </si>
-  <si>
     <t>advancepaymentsadjustmenttype</t>
   </si>
   <si>
     <t>Reduce number of installments</t>
+  </si>
+  <si>
+    <t>4210-RBI-EI-DB-DL-REC-RNI-INT-FFConMONTHLYonDAY25-FIFC-1-FFROP-DAILY-FIFR-1-MD-TR-1-ONT-PER-1st</t>
+  </si>
+  <si>
+    <t>421q</t>
   </si>
 </sst>
 </file>
@@ -651,8 +654,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -666,15 +669,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
-        <v>4210</v>
+      <c r="B2" s="5" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -839,10 +842,10 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>73</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -1062,7 +1065,7 @@
         <v>52</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
